--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_ComptrollerSourceGroupProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_ComptrollerSourceGroupProfile_Regression_001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4FEBA0-CE66-4091-A03F-99E99F52AA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F03451D-3203-434A-B326-0CF73806D851}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="760" windowWidth="18780" windowHeight="9910" xr2:uid="{ED1DE3A2-7D10-4EDF-83CE-8D5FA019BAB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED1DE3A2-7D10-4EDF-83CE-8D5FA019BAB9}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -537,21 +537,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05B2E18-436A-488F-94B9-FF593DC035ED}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="24.45" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -791,7 +791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -871,7 +871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
